--- a/results/analysis/waveData/batch_0_wave_2/wave_debriefing.xlsx
+++ b/results/analysis/waveData/batch_0_wave_2/wave_debriefing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levan\GitHub\concept_gen_analysis\results\analysis\waveData\batch_0_wave_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2515E6D4-7938-4D23-B9B2-B58DFA7C401D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D05F6-CD77-46D2-932B-68352B4A1946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1359,7 +1359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1389,7 +1389,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1405,6 +1405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,7 +1434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1465,6 +1471,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1783,25 +1792,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="17" width="35.42578125" customWidth="1"/>
+    <col min="7" max="17" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60">
+    <row r="1" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1863,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="45">
+    <row r="2" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +1908,7 @@
       </c>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="30">
+    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2003,7 +2012,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="105">
+    <row r="5" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45">
+    <row r="6" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2094,7 @@
       <c r="J6" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="14" t="s">
         <v>232</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -2107,7 +2116,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2134,7 +2143,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2179,7 +2188,7 @@
       </c>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2220,7 +2229,7 @@
       </c>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="30">
+    <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2265,7 +2274,7 @@
       </c>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="75">
+    <row r="11" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2363,7 +2372,7 @@
       </c>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="45">
+    <row r="13" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2408,7 +2417,7 @@
       </c>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="165">
+    <row r="14" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2486,7 +2495,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="180">
+    <row r="16" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2535,7 +2544,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2560,7 +2569,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="90">
+    <row r="18" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2611,7 +2620,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30">
+    <row r="19" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2656,7 +2665,7 @@
       </c>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="30">
+    <row r="20" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2701,7 +2710,7 @@
       </c>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" s="11" customFormat="1" ht="135">
+    <row r="21" spans="1:17" s="11" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2754,7 +2763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2781,7 +2790,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" ht="30">
+    <row r="23" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2812,7 +2821,7 @@
       <c r="J23" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="14" t="s">
         <v>244</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -2834,7 +2843,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="45">
+    <row r="24" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="45">
+    <row r="25" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2932,7 +2941,7 @@
       </c>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" ht="60">
+    <row r="26" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2983,7 +2992,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="60">
+    <row r="27" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3028,7 +3037,7 @@
       </c>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" ht="45">
+    <row r="28" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3073,7 +3082,7 @@
       </c>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" ht="45">
+    <row r="29" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3124,7 +3133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3151,7 +3160,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" ht="75">
+    <row r="31" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3204,7 +3213,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="60">
+    <row r="32" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -3282,7 +3291,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" ht="60">
+    <row r="34" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3333,7 +3342,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="105">
+    <row r="35" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -3382,7 +3391,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -3407,7 +3416,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" ht="45">
+    <row r="37" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -3450,7 +3459,7 @@
       </c>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" ht="60">
+    <row r="38" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -3495,7 +3504,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" ht="45">
+    <row r="39" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -3536,7 +3545,7 @@
       </c>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -3585,7 +3594,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="180">
+    <row r="41" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -3638,7 +3647,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="30">
+    <row r="42" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -3667,7 +3676,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" ht="30">
+    <row r="43" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -3718,7 +3727,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="30">
+    <row r="44" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="135">
+    <row r="45" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="45">
+    <row r="46" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -3867,7 +3876,7 @@
       </c>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" ht="45">
+    <row r="47" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -3912,7 +3921,7 @@
       </c>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" ht="30">
+    <row r="48" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -3941,7 +3950,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" ht="45">
+    <row r="49" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -3992,7 +4001,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="30">
+    <row r="50" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -4037,7 +4046,7 @@
       </c>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -4064,7 +4073,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" ht="45">
+    <row r="52" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -4117,7 +4126,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="30">
+    <row r="53" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -4162,7 +4171,7 @@
       </c>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" ht="180">
+    <row r="54" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -4199,7 +4208,7 @@
       <c r="L54" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="14" t="s">
         <v>334</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -4213,7 +4222,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="165">
+    <row r="55" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -4244,19 +4253,19 @@
       <c r="J55" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="14" t="s">
         <v>270</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="14" t="s">
         <v>335</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="O55" s="14" t="s">
         <v>367</v>
       </c>
       <c r="P55" s="1" t="s">
@@ -4266,7 +4275,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="120">
+    <row r="56" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -4311,7 +4320,7 @@
       </c>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -4338,7 +4347,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" ht="60">
+    <row r="58" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -4391,7 +4400,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="60">
+    <row r="59" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -4444,7 +4453,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="90">
+    <row r="60" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -4497,7 +4506,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="75">
+    <row r="61" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
@@ -4550,7 +4559,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="195">
+    <row r="62" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
@@ -4593,7 +4602,7 @@
       <c r="N62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="O62" s="14" t="s">
         <v>372</v>
       </c>
       <c r="P62" s="1" t="s">
@@ -4603,7 +4612,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="45">
+    <row r="63" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="120">
+    <row r="64" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
@@ -4705,7 +4714,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="60">
+    <row r="65" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
@@ -4756,7 +4765,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="45">
+    <row r="66" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
@@ -4807,7 +4816,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="45">
+    <row r="67" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
@@ -4852,7 +4861,7 @@
       </c>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="45">
+    <row r="68" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
